--- a/dataFiles/signup/Signup-Negative.xlsx
+++ b/dataFiles/signup/Signup-Negative.xlsx
@@ -205,13 +205,13 @@
     <t>Password do not match</t>
   </si>
   <si>
-    <t>prabhaAutoJElk9389@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutoHdss</t>
-  </si>
-  <si>
-    <t>automationwxbo</t>
+    <t>prabhaAutoBAXE2961@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoBIrr</t>
+  </si>
+  <si>
+    <t>automationbetp</t>
   </si>
   <si>
     <t>Empty</t>

--- a/dataFiles/signup/Signup-Negative.xlsx
+++ b/dataFiles/signup/Signup-Negative.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="7" name="SignUpNegative" state="visible" r:id="rId4"/>
+    <sheet name="SignUpNegative" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -397,41 +397,41 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -443,7 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,15 +794,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
@@ -846,7 +846,7 @@
     <col min="48" max="48" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>89</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>113</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" ht="40.5" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>119</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>122</v>
       </c>
@@ -2108,6 +2108,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/dataFiles/signup/Signup-Negative.xlsx
+++ b/dataFiles/signup/Signup-Negative.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="SignUpNegative" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -385,10 +385,10 @@
     <t>SignUp_Negative_07</t>
   </si>
   <si>
-    <t>To verify the user enter the 2 number only</t>
-  </si>
-  <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>To verify the user enter the number only</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -516,6 +516,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,10 +1757,10 @@
         <v>81</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>81</v>
+        <v>116</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="W7" s="10" t="s">
         <v>81</v>
@@ -1843,7 +1846,7 @@
         <v>122</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>91</v>
@@ -1888,22 +1891,22 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y8" s="10" t="s">
         <v>68</v>

--- a/dataFiles/signup/Signup-Negative.xlsx
+++ b/dataFiles/signup/Signup-Negative.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="SignUpNegative" sheetId="7" r:id="rId1"/>
+    <sheet sheetId="7" name="SignUpNegative" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="134">
   <si>
     <t>Test ID</t>
   </si>
@@ -205,13 +205,13 @@
     <t>Password do not match</t>
   </si>
   <si>
-    <t>prabhaAutoBAXE2961@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutoBIrr</t>
-  </si>
-  <si>
-    <t>automationbetp</t>
+    <t>prabhaAutoRfyp2938@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutofBsr</t>
+  </si>
+  <si>
+    <t>automationmdos</t>
   </si>
   <si>
     <t>Empty</t>
@@ -322,6 +322,15 @@
     <t>To verify the user enter the numbers only</t>
   </si>
   <si>
+    <t>prabhaAutoJcoy4742@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutooZDI</t>
+  </si>
+  <si>
+    <t>automationaoit</t>
+  </si>
+  <si>
     <t>24324</t>
   </si>
   <si>
@@ -346,6 +355,15 @@
     <t>To verify the user enter the character and number only</t>
   </si>
   <si>
+    <t>prabhaAutoRBcz3410@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutolFGT</t>
+  </si>
+  <si>
+    <t>automationyiks</t>
+  </si>
+  <si>
     <t>test1</t>
   </si>
   <si>
@@ -361,6 +379,15 @@
     <t>To verify the user enter the special charaters and number only</t>
   </si>
   <si>
+    <t>prabhaAutohNwK8639@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoGHTk</t>
+  </si>
+  <si>
+    <t>automationovml</t>
+  </si>
+  <si>
     <t>@1234</t>
   </si>
   <si>
@@ -385,10 +412,10 @@
     <t>SignUp_Negative_07</t>
   </si>
   <si>
+    <t>To verify the user enter the number only</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>To verify the user enter the number only</t>
   </si>
 </sst>
 </file>
@@ -397,41 +424,41 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -443,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -516,9 +543,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,15 +821,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
@@ -849,7 +873,7 @@
     <col min="48" max="48" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
@@ -1141,7 +1165,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>89</v>
       </c>
@@ -1281,7 +1305,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -1289,7 +1313,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>51</v>
@@ -1327,26 +1351,32 @@
       <c r="O4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="S4" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y4" s="10" t="s">
         <v>68</v>
@@ -1376,7 +1406,7 @@
         <v>74</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AI4" s="10" t="s">
         <v>76</v>
@@ -1418,18 +1448,18 @@
         <v>87</v>
       </c>
       <c r="AV4" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>51</v>
@@ -1467,26 +1497,32 @@
       <c r="O5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="S5" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y5" s="10" t="s">
         <v>68</v>
@@ -1507,16 +1543,16 @@
         <v>73</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AG5" s="10" t="s">
         <v>74</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>76</v>
@@ -1558,18 +1594,18 @@
         <v>87</v>
       </c>
       <c r="AV5" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>51</v>
@@ -1607,26 +1643,32 @@
       <c r="O6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="S6" s="10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>68</v>
@@ -1656,7 +1698,7 @@
         <v>74</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AI6" s="10" t="s">
         <v>76</v>
@@ -1698,15 +1740,15 @@
         <v>87</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="40.5" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>91</v>
@@ -1757,10 +1799,10 @@
         <v>81</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>104</v>
+        <v>125</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="W7" s="10" t="s">
         <v>81</v>
@@ -1796,7 +1838,7 @@
         <v>74</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AI7" s="10" t="s">
         <v>76</v>
@@ -1841,12 +1883,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>91</v>
@@ -1891,22 +1933,22 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y8" s="10" t="s">
         <v>68</v>
@@ -2111,6 +2153,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/dataFiles/signup/Signup-Negative.xlsx
+++ b/dataFiles/signup/Signup-Negative.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="142">
   <si>
     <t>Test ID</t>
   </si>
@@ -205,13 +205,13 @@
     <t>Password do not match</t>
   </si>
   <si>
-    <t>prabhaAutoRfyp2938@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutofBsr</t>
-  </si>
-  <si>
-    <t>automationmdos</t>
+    <t>prabhaAutonFdS1039@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutonTWD</t>
+  </si>
+  <si>
+    <t>automationyxlc</t>
   </si>
   <si>
     <t>Empty</t>
@@ -289,12 +289,18 @@
     <t>To verify the user enter the special charaters only</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
+    <t>prabhaAutoqqiN9104@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutolLyD</t>
+  </si>
+  <si>
+    <t>automationlhdn</t>
+  </si>
+  <si>
     <t>!@#$</t>
   </si>
   <si>
@@ -322,13 +328,13 @@
     <t>To verify the user enter the numbers only</t>
   </si>
   <si>
-    <t>prabhaAutoJcoy4742@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutooZDI</t>
-  </si>
-  <si>
-    <t>automationaoit</t>
+    <t>prabhaAutoaycq6488@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoqxxQ</t>
+  </si>
+  <si>
+    <t>automationbjkd</t>
   </si>
   <si>
     <t>24324</t>
@@ -355,13 +361,13 @@
     <t>To verify the user enter the character and number only</t>
   </si>
   <si>
-    <t>prabhaAutoRBcz3410@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutolFGT</t>
-  </si>
-  <si>
-    <t>automationyiks</t>
+    <t>prabhaAutolVMf7394@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoBmDq</t>
+  </si>
+  <si>
+    <t>automationjkvq</t>
   </si>
   <si>
     <t>test1</t>
@@ -379,13 +385,13 @@
     <t>To verify the user enter the special charaters and number only</t>
   </si>
   <si>
-    <t>prabhaAutohNwK8639@mailinator.com</t>
-  </si>
-  <si>
-    <t>PrabhaAutoGHTk</t>
-  </si>
-  <si>
-    <t>automationovml</t>
+    <t>prabhaAutoTBuI3510@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoKliN</t>
+  </si>
+  <si>
+    <t>automationatwk</t>
   </si>
   <si>
     <t>@1234</t>
@@ -406,6 +412,15 @@
     <t xml:space="preserve">To verify the user enter the first letter uppercase </t>
   </si>
   <si>
+    <t>prabhaAutoMZun7789@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoNoJM</t>
+  </si>
+  <si>
+    <t>automationcsqi</t>
+  </si>
+  <si>
     <t>000000</t>
   </si>
   <si>
@@ -413,6 +428,15 @@
   </si>
   <si>
     <t>To verify the user enter the number only</t>
+  </si>
+  <si>
+    <t>prabhaAutoGqAq2613@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaAutoPuqG</t>
+  </si>
+  <si>
+    <t>automationvtnj</t>
   </si>
   <si>
     <t>2</t>
@@ -826,7 +850,7 @@
   <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -1173,10 +1197,10 @@
         <v>90</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>52</v>
@@ -1211,26 +1235,32 @@
       <c r="O3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="S3" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="Y3" s="10" t="s">
         <v>68</v>
@@ -1251,16 +1281,16 @@
         <v>73</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG3" s="10" t="s">
         <v>74</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>76</v>
@@ -1307,10 +1337,10 @@
     </row>
     <row r="4" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>50</v>
@@ -1352,31 +1382,31 @@
         <v>62</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="Y4" s="10" t="s">
         <v>68</v>
@@ -1406,7 +1436,7 @@
         <v>74</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI4" s="10" t="s">
         <v>76</v>
@@ -1448,15 +1478,15 @@
         <v>87</v>
       </c>
       <c r="AV4" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>50</v>
@@ -1498,31 +1528,31 @@
         <v>62</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y5" s="10" t="s">
         <v>68</v>
@@ -1543,16 +1573,16 @@
         <v>73</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG5" s="10" t="s">
         <v>74</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>76</v>
@@ -1594,15 +1624,15 @@
         <v>87</v>
       </c>
       <c r="AV5" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>50</v>
@@ -1644,31 +1674,31 @@
         <v>62</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>68</v>
@@ -1698,7 +1728,7 @@
         <v>74</v>
       </c>
       <c r="AH6" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AI6" s="10" t="s">
         <v>76</v>
@@ -1740,18 +1770,18 @@
         <v>87</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="40.5" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>51</v>
@@ -1789,9 +1819,15 @@
       <c r="O7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="P7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="S7" s="10" t="s">
         <v>81</v>
       </c>
@@ -1799,10 +1835,10 @@
         <v>81</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W7" s="10" t="s">
         <v>81</v>
@@ -1838,7 +1874,7 @@
         <v>74</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AI7" s="10" t="s">
         <v>76</v>
@@ -1885,16 +1921,16 @@
     </row>
     <row r="8" ht="141.75" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>52</v>
@@ -1929,26 +1965,32 @@
       <c r="O8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="S8" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Y8" s="10" t="s">
         <v>68</v>
